--- a/Output.xlsx
+++ b/Output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,15 @@
     <t>GCD1001</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Huynh</t>
+  </si>
+  <si>
     <t>Merit</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
   </si>
   <si>
     <t>Dinh</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2022 Aspose Pty Ltd.</t>
@@ -533,8 +539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135970d-fa23-46ec-8543-924b019bd7f9}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9d1158c2-0c65-4b46-ac29-39e25280a0a0}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -592,10 +598,10 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -603,7 +609,7 @@
     </row>
     <row r="3" spans="1:9" ht="12.75">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -612,27 +618,27 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -641,22 +647,51 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="I5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3231bcf7-1b15-421f-b0f5-707b7a0ec38e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{acc34661-19c9-4d13-8c92-b6fb37c8c0b0}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -674,7 +709,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
